--- a/attachments/DSJ_AE_AI_in_Operations_Information_Systems_and_Marketing.xlsx
+++ b/attachments/DSJ_AE_AI_in_Operations_Information_Systems_and_Marketing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2645361A-64D7-4F99-B21F-FC09BD93F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE3E1C-1F78-45A6-9D5B-CEA94F15E652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_E5F83C08_EBAA_4485_9502_07A269D77155_.wvu.FilterData" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$L$71</definedName>
+    <definedName name="Z_E5F83C08_EBAA_4485_9502_07A269D77155_.wvu.FilterData" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$L$73</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="460">
   <si>
     <t>First Name</t>
   </si>
@@ -1394,6 +1394,33 @@
       </rPr>
       <t>zcao@scu.edu.cn</t>
     </r>
+  </si>
+  <si>
+    <t>Jie (Jennifer)</t>
+  </si>
+  <si>
+    <t>jiezhang@uta.edu</t>
+  </si>
+  <si>
+    <t>Data analytics</t>
+  </si>
+  <si>
+    <t>Experiments and Agent-based Modelling</t>
+  </si>
+  <si>
+    <t>AI Psychology</t>
+  </si>
+  <si>
+    <t>Dongwon</t>
+  </si>
+  <si>
+    <t>dongwon@ust.hk</t>
+  </si>
+  <si>
+    <t>HKUST Business School</t>
+  </si>
+  <si>
+    <t>The Hong Kong University of Science and Technology</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1558,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1543,17 +1569,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1774,25 +1801,25 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1013"/>
+  <dimension ref="A1:L1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.609375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="37.609375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="56.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="56.38671875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="53.71875" style="6" customWidth="1"/>
-    <col min="9" max="12" width="46.5" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="12.609375" style="6"/>
+    <col min="1" max="1" width="16.38671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="34.609375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.609375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="56.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="56.38671875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="53.71875" style="5" customWidth="1"/>
+    <col min="9" max="12" width="46.5" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="12.609375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1837,459 +1864,459 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>92</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="12"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2306,16 +2333,16 @@
       <c r="D15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2324,7 +2351,7 @@
       <c r="J15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>78</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -2347,7 +2374,7 @@
       <c r="E16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2385,7 +2412,7 @@
       <c r="E17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2423,7 +2450,7 @@
       <c r="E18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2461,7 +2488,7 @@
       <c r="E19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -2499,7 +2526,7 @@
       <c r="E20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2527,7 +2554,7 @@
       <c r="E21" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2563,7 +2590,7 @@
       <c r="E22" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2601,7 +2628,7 @@
       <c r="E23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -2629,7 +2656,7 @@
       <c r="E24" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2667,7 +2694,7 @@
       <c r="E25" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2690,1559 +2717,1621 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="14" t="s">
+      <c r="A26" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>18</v>
+        <v>214</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>18</v>
+        <v>222</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>236</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>78</v>
+        <v>229</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>68</v>
+        <v>233</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>18</v>
+        <v>237</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>151</v>
+        <v>248</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>265</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F39" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>272</v>
+        <v>102</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>282</v>
+        <v>53</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F41" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>272</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>450</v>
+        <v>188</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F42" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="K42" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>293</v>
+        <v>153</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F43" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>115</v>
+        <v>171</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>272</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F44" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>172</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F45" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>307</v>
+        <v>172</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F46" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>316</v>
+        <v>171</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F47" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>91</v>
+        <v>306</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>300</v>
+        <v>310</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F48" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>316</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>120</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>18</v>
+        <v>325</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F50" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>337</v>
+        <v>109</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>338</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>340</v>
+        <v>188</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>55</v>
+        <v>331</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>346</v>
+        <v>56</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F52" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>172</v>
+        <v>335</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>244</v>
+        <v>336</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>316</v>
+        <v>55</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>244</v>
+        <v>344</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F54" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>357</v>
+        <v>172</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>358</v>
+        <v>244</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>359</v>
+        <v>68</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="E55" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>367</v>
+        <v>172</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>368</v>
+        <v>244</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>369</v>
+        <v>68</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>373</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>18</v>
+        <v>325</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>288</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F57" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>91</v>
+        <v>366</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>173</v>
+        <v>369</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>78</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>373</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>199</v>
+        <v>374</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F59" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="J59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>392</v>
+        <v>199</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F60" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>68</v>
+        <v>383</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>386</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F61" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>397</v>
+        <v>39</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>19</v>
+        <v>389</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>393</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F62" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>102</v>
+        <v>370</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>400</v>
+        <v>113</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>401</v>
+        <v>113</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F63" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>406</v>
+        <v>68</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>102</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>408</v>
+        <v>64</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F64" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>173</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>413</v>
+        <v>145</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>401</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>416</v>
+        <v>276</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F65" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>48</v>
+        <v>404</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>408</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>276</v>
+        <v>410</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F66" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>404</v>
+        <v>171</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>368</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>424</v>
+        <v>64</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>426</v>
+        <v>171</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>428</v>
+        <v>21</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>431</v>
+        <v>175</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>433</v>
+        <v>276</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F68" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>262</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>435</v>
+        <v>173</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>436</v>
+        <v>21</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>437</v>
+        <v>368</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>188</v>
+        <v>424</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>439</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>271</v>
+        <v>427</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>244</v>
+        <v>428</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>272</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>440</v>
+        <v>262</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>271</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="F73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L73" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5183,11 +5272,13 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{E5F83C08-EBAA-4485-9502-07A269D77155}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L70" xr:uid="{DA1002A2-3932-4296-81AD-BFE2EE565941}"/>
+      <autoFilter ref="A1:L70" xr:uid="{6BFFFDCD-BBF6-44F3-B212-FC5321FF4EA5}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1603177247"/>
@@ -5196,8 +5287,8 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C44" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C7" r:id="rId3" xr:uid="{E12B8D5A-8F95-40D2-8A1D-CF16724A8235}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{0CCACBDA-A118-4AC0-BC25-09FD1A00323B}"/>
   </hyperlinks>
